--- a/calculatorApp/static/excelTemplates/planTemplate1.xlsx
+++ b/calculatorApp/static/excelTemplates/planTemplate1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malis\PycharmProjects\calculator\calculatorApp\static\excelTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\calculator2\calculatorApp\static\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F382FF-2367-499D-B113-C79332E99078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4EA7C-BB49-4251-A742-6075E6416211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="14685" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -341,11 +341,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -353,16 +353,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -377,10 +371,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,113 +388,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -880,7 +774,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,14 +783,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -922,33 +816,33 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -957,19 +851,19 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
